--- a/literature/literature_spreadsheet.xlsx
+++ b/literature/literature_spreadsheet.xlsx
@@ -990,10 +990,19 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" customWidth="1"/>
+    <col min="3" max="3" width="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="1.85546875" customWidth="1"/>
+    <col min="6" max="6" width="2" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" s="4" customFormat="1">
       <c r="A1" s="9" t="s">
